--- a/results/I3_N5_M2_T15_C100_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T15_C100_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1182.827489403847</v>
+        <v>1474.289011230924</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.18901356216583</v>
+        <v>20.71423809492234</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.345864704189571</v>
+        <v>5.315063262079851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.694340545865074</v>
+        <v>4.889836398081229</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>772.3700000000052</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>384.92</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>9.930483257745369</v>
+        <v>6.579377207014334</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>9.684936737920157</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.72365203806506</v>
+        <v>12.37517619638957</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>12.05666855417199</v>
+        <v>12.04215968028263</v>
       </c>
     </row>
     <row r="8">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>13.61204927984102</v>
       </c>
     </row>
   </sheetData>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1129,7 +1074,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,7 +1130,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,7 +1144,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1213,7 +1158,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
@@ -1227,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
@@ -1241,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1255,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="B16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>5</v>
@@ -1363,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>114.3099999999994</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1374,7 +1319,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>122.45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>121.5149999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1396,7 +1341,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>120.45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1407,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.9549999999994</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1418,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>60.3</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
@@ -1429,7 +1374,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>68.65000000000001</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
@@ -1440,7 +1385,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>64.71999999999979</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -1451,7 +1396,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>67.17999999999978</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -1462,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>68.77999999999977</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1473,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>39.68999999999986</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
@@ -1484,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>31.57999999999985</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1495,7 +1440,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>35.61499999999985</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1506,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71999999999986</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
@@ -1517,7 +1462,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>35.40999999999985</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1528,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>107.0100000000001</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23">
@@ -1539,7 +1484,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>107.7850000000001</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1550,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>116.8050000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1506,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>101.3100000000001</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26">
@@ -1572,7 +1517,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>109.9950000000001</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1583,7 +1528,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>152.9850000000009</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28">
@@ -1594,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>153.2300000000009</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1550,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>159.1650000000009</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -1616,7 +1561,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>156.6300000000009</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31">
@@ -1627,7 +1572,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>161.4950000000009</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -1638,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>152.9850000000009</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33">
@@ -1649,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>153.2300000000009</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34">
@@ -1660,7 +1605,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>159.1650000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="35">
@@ -1671,7 +1616,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.6300000000009</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>161.4950000000009</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1693,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>114.3099999999994</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38">
@@ -1704,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>122.45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>121.5149999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40">
@@ -1726,7 +1671,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>120.45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41">
@@ -1737,7 +1682,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>123.9549999999994</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>52.98500000000087</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1795,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>53.23000000000087</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -1806,7 +1751,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>59.16500000000087</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
@@ -1817,7 +1762,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>56.63000000000088</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
@@ -1828,7 +1773,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>61.49500000000086</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1839,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>14.30999999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1850,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>22.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1861,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>21.51499999999942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1872,7 +1817,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>20.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1883,7 +1828,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>23.95499999999942</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.71</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1941,7 +1886,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>5.64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1952,7 +1897,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>12.58</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1963,7 +1908,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>10.91</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1974,7 +1919,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>8.01</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1985,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>25.39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1996,7 +1941,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2007,7 +1952,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>16.41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2018,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>22.695</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2029,7 +1974,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>17.76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +1985,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2051,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>7.145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2062,7 +2007,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2073,7 +2018,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>7.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2084,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2235,7 +2180,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2246,7 +2191,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2257,7 +2202,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2268,7 +2213,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2279,7 +2224,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
